--- a/Nutzwerkanalyse.xlsx
+++ b/Nutzwerkanalyse.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ppa.nguyen0704/Documents/Uni/Fulda/3.Semester/Projektmanagement-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7006CCA8-D032-AC49-9676-D13247261D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D64FCC-8BFD-D84A-983F-6EF6E68885FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="1460" windowWidth="28040" windowHeight="17440" xr2:uid="{A6F9E284-4466-C44A-B6D5-EEB6AF601BF4}"/>
+    <workbookView xWindow="6520" yWindow="1460" windowWidth="28040" windowHeight="17440" xr2:uid="{A6F9E284-4466-C44A-B6D5-EEB6AF601BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,9 +125,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,7 +465,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -569,7 +570,7 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -667,13 +668,45 @@
       <c r="I6">
         <v>3</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
+      </c>
+      <c r="C7">
+        <f>C2*$B$2 +C3*$B$3+ C4*$B$4+C5*$B$5+C6*$B$6</f>
+        <v>3.1000000000000005</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:J7" si="0">D2*$B$2 +D3*$B$3+ D4*$B$4+D5*$B$5+D6*$B$6</f>
+        <v>3.1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>3.8999999999999995</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2.95</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>2.35</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>2.35</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
